--- a/data/trans_orig/P73-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P73-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7128E455-C8BF-4976-A733-26526D425F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{286368DE-D685-4766-BB53-C0CD625ACF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6EF45FFC-CDEF-4D36-9FE3-30FF07E3305E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5685F479-0DD6-4C5D-9B4B-EF58DB9B6203}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,25 +98,25 @@
     <t>8,04%</t>
   </si>
   <si>
-    <t>13,66%</t>
+    <t>13,71%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,7 +125,7 @@
     <t>89,41%</t>
   </si>
   <si>
-    <t>86,34%</t>
+    <t>86,29%</t>
   </si>
   <si>
     <t>91,96%</t>
@@ -134,19 +134,19 @@
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>53,12%</t>
   </si>
   <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -230,55 +230,55 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -290,55 +290,55 @@
     <t>86,09%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -356,55 +356,55 @@
     <t>87,99%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -419,352 +419,358 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>76,18%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>23,7%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -773,55 +779,49 @@
     <t>86,55%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>89,66%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>10,34%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -830,10 +830,10 @@
     <t>76,03%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>47,89%</t>
@@ -842,31 +842,31 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>51,83%</t>
+    <t>51,61%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>48,17%</t>
+    <t>48,39%</t>
   </si>
   <si>
     <t>55,92%</t>
@@ -875,64 +875,64 @@
     <t>39,99%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>64,89%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>35,11%</t>
   </si>
   <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
   </si>
   <si>
     <t>35,06%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
@@ -941,55 +941,55 @@
     <t>9,33%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -1001,55 +1001,55 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -1058,103 +1058,103 @@
     <t>74,86%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>82,32%</t>
+    <t>76,25%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>17,68%</t>
+    <t>23,75%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -1166,127 +1166,127 @@
     <t>81,07%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>61,93%</t>
@@ -1295,31 +1295,31 @@
     <t>60,7%</t>
   </si>
   <si>
-    <t>63,01%</t>
+    <t>63,15%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>36,99%</t>
+    <t>36,85%</t>
   </si>
   <si>
     <t>39,3%</t>
@@ -1833,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AF936B-5EC9-46D1-9C78-5590C7FD6551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFBE988-7C4E-4E0A-B6B5-E080586DFD9B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3241,7 +3241,7 @@
         <v>2096</v>
       </c>
       <c r="D29" s="7">
-        <v>2142457</v>
+        <v>2142458</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>145</v>
@@ -3262,10 +3262,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>4149</v>
@@ -3274,13 +3274,13 @@
         <v>4256715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3295,13 @@
         <v>1133174</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>1244</v>
@@ -3310,13 +3310,13 @@
         <v>1264940</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>2361</v>
@@ -3325,13 +3325,13 @@
         <v>2398114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3343,7 @@
         <v>3213</v>
       </c>
       <c r="D31" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBAAE4E-E2A9-47F7-8947-2BC25DCC558F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC9C42-779C-4C8E-9DC4-B3F9909DAA16}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3584,13 @@
         <v>47370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3599,13 +3599,13 @@
         <v>77568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -3614,13 +3614,13 @@
         <v>124938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3635,13 @@
         <v>402027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>339</v>
@@ -3650,13 +3650,13 @@
         <v>346128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>733</v>
@@ -3665,13 +3665,13 @@
         <v>748155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3760,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>326188</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>385</v>
@@ -3805,13 +3805,13 @@
         <v>412459</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>701</v>
@@ -3820,13 +3820,13 @@
         <v>738648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3841,13 @@
         <v>356778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -3856,13 +3856,13 @@
         <v>196813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>532</v>
@@ -3871,13 +3871,13 @@
         <v>553590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,28 +3996,28 @@
         <v>551840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>574</v>
       </c>
       <c r="I13" s="7">
-        <v>610398</v>
+        <v>610397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>1100</v>
@@ -4026,13 +4026,13 @@
         <v>1162238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4047,13 @@
         <v>130023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -4062,13 +4062,13 @@
         <v>97555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -4077,13 +4077,13 @@
         <v>227577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4110,7 @@
         <v>665</v>
       </c>
       <c r="I15" s="7">
-        <v>707953</v>
+        <v>707952</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4157,7 +4157,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4202,13 @@
         <v>499551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -4217,13 +4217,13 @@
         <v>492415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>877</v>
@@ -4232,13 +4232,13 @@
         <v>991966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4253,13 @@
         <v>115066</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -4268,28 +4268,28 @@
         <v>122770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>237835</v>
+        <v>237836</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4331,7 @@
         <v>1086</v>
       </c>
       <c r="N19" s="7">
-        <v>1229801</v>
+        <v>1229802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4378,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>370687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -4423,13 +4423,13 @@
         <v>351878</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M21" s="7">
         <v>658</v>
@@ -4438,13 +4438,13 @@
         <v>722565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4459,13 @@
         <v>57610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4641,7 +4641,7 @@
         <v>714</v>
       </c>
       <c r="N25" s="7">
-        <v>776997</v>
+        <v>776996</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>268</v>
@@ -4743,7 +4743,7 @@
         <v>1190</v>
       </c>
       <c r="N27" s="7">
-        <v>1294734</v>
+        <v>1294733</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074BD01F-310D-4C06-A762-F4EF0AE1119F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C659998-D871-44EE-8AB6-29F672E31E97}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5321,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
@@ -5641,10 +5641,10 @@
         <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -5805,7 +5805,7 @@
         <v>889</v>
       </c>
       <c r="N17" s="7">
-        <v>969736</v>
+        <v>969737</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>360</v>
@@ -5907,7 +5907,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5969,7 +5969,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,7 +6423,7 @@
         <v>4067</v>
       </c>
       <c r="N29" s="7">
-        <v>4293881</v>
+        <v>4293880</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>416</v>
@@ -6525,7 +6525,7 @@
         <v>6564</v>
       </c>
       <c r="N31" s="7">
-        <v>6933939</v>
+        <v>6933938</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C7635A-2F03-467F-B51F-A2A45EFCDCE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76ED8D-C273-40AB-9316-920C84341709}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7154,7 +7154,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7205,7 +7205,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P73-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{286368DE-D685-4766-BB53-C0CD625ACF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3D2787-CC70-4E72-A035-CFE82633DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5685F479-0DD6-4C5D-9B4B-EF58DB9B6203}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CC17EA8-22A6-4BFB-8589-84CAAA6B1827}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="453">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>89,41%</t>
   </si>
   <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>53,12%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>46,88%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -230,766 +230,748 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>76,36%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>83,06%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>63,83%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>Población según si están casados o viven en pareja en 2015 (Tasa respuesta: 99,92%)</t>
+    <t>Población según si están casados o viven en pareja en 2016 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>24,41%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>75,59%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -1001,55 +983,55 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>60,66%</t>
   </si>
   <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>39,34%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>42,57%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -1058,103 +1040,103 @@
     <t>74,86%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>76,25%</t>
+    <t>82,11%</t>
   </si>
   <si>
     <t>77,12%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>23,75%</t>
+    <t>17,89%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>75,64%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -1166,163 +1148,157 @@
     <t>81,07%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
   </si>
   <si>
     <t>61,93%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>63,01%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
+    <t>36,99%</t>
   </si>
   <si>
     <t>Población según si están casados o viven en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1833,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFBE988-7C4E-4E0A-B6B5-E080586DFD9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFC54E9-97D3-4E9B-BD84-EFD3FA97DC43}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2441,7 +2417,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7">
         <v>1048</v>
@@ -2450,13 +2426,13 @@
         <v>1087338</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2447,13 @@
         <v>126882</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -2486,13 +2462,13 @@
         <v>114192</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>223</v>
@@ -2501,13 +2477,13 @@
         <v>241074</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2581,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2626,13 +2602,13 @@
         <v>446151</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -2641,13 +2617,13 @@
         <v>410721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>821</v>
@@ -2656,13 +2632,13 @@
         <v>856872</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2653,13 @@
         <v>72084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -2692,13 +2668,13 @@
         <v>104921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>164</v>
@@ -2707,13 +2683,13 @@
         <v>177005</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,7 +2745,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2787,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2802,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2817,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2808,13 @@
         <v>340268</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>307</v>
@@ -2847,13 +2823,13 @@
         <v>313710</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>653</v>
@@ -2862,13 +2838,13 @@
         <v>653978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2859,13 @@
         <v>46442</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>89</v>
@@ -2898,13 +2874,13 @@
         <v>90276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -2913,13 +2889,13 @@
         <v>136718</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2951,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2993,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3023,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3014,13 @@
         <v>401237</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>321</v>
@@ -3053,13 +3029,13 @@
         <v>318256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>738</v>
@@ -3068,13 +3044,13 @@
         <v>719494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3065,13 @@
         <v>101229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>340</v>
@@ -3104,13 +3080,13 @@
         <v>358586</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>446</v>
@@ -3119,13 +3095,13 @@
         <v>459814</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3214,7 +3190,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3229,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,16 +3217,16 @@
         <v>2096</v>
       </c>
       <c r="D29" s="7">
-        <v>2142458</v>
+        <v>2142457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>2053</v>
@@ -3259,13 +3235,13 @@
         <v>2114258</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>4149</v>
@@ -3274,13 +3250,13 @@
         <v>4256715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3271,13 @@
         <v>1133174</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>1244</v>
@@ -3310,13 +3286,13 @@
         <v>1264940</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>2361</v>
@@ -3325,13 +3301,13 @@
         <v>2398114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3319,7 @@
         <v>3213</v>
       </c>
       <c r="D31" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -3387,7 +3363,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC9C42-779C-4C8E-9DC4-B3F9909DAA16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF1AA14-72ED-4AB2-8F89-E030243800C3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3554,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3569,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3560,13 @@
         <v>47370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3599,13 +3575,13 @@
         <v>77568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -3614,13 +3590,13 @@
         <v>124938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3611,13 @@
         <v>402027</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>339</v>
@@ -3650,13 +3626,13 @@
         <v>346128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>733</v>
@@ -3665,13 +3641,13 @@
         <v>748155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3775,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3766,13 @@
         <v>326188</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>385</v>
@@ -3805,13 +3781,13 @@
         <v>412459</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>701</v>
@@ -3820,13 +3796,13 @@
         <v>738648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3817,13 @@
         <v>356778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -3856,13 +3832,13 @@
         <v>196813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>532</v>
@@ -3871,13 +3847,13 @@
         <v>553590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,28 +3972,28 @@
         <v>551840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>574</v>
       </c>
       <c r="I13" s="7">
-        <v>610397</v>
+        <v>610398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>1100</v>
@@ -4026,13 +4002,13 @@
         <v>1162238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4023,13 @@
         <v>130023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -4062,13 +4038,13 @@
         <v>97555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -4077,13 +4053,13 @@
         <v>227577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4086,7 @@
         <v>665</v>
       </c>
       <c r="I15" s="7">
-        <v>707952</v>
+        <v>707953</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4139,7 +4115,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4157,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4172,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4187,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4178,13 @@
         <v>499551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>429</v>
@@ -4217,13 +4193,13 @@
         <v>492415</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>877</v>
@@ -4232,13 +4208,13 @@
         <v>991966</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4229,13 @@
         <v>115066</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -4268,13 +4244,13 @@
         <v>122770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -4283,13 +4259,13 @@
         <v>237836</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,7 +4321,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4363,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4378,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4393,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4384,13 @@
         <v>370687</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -4423,13 +4399,13 @@
         <v>351878</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M21" s="7">
         <v>658</v>
@@ -4438,13 +4414,13 @@
         <v>722565</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4435,13 @@
         <v>57610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4474,13 +4450,13 @@
         <v>95922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -4489,13 +4465,13 @@
         <v>153532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4527,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4584,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4599,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4590,13 @@
         <v>424105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
         <v>332</v>
@@ -4629,13 +4605,13 @@
         <v>352891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>714</v>
@@ -4644,13 +4620,13 @@
         <v>776996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4641,13 @@
         <v>133717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H26" s="7">
         <v>356</v>
@@ -4680,13 +4656,13 @@
         <v>384020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M26" s="7">
         <v>476</v>
@@ -4695,13 +4671,13 @@
         <v>517737</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4790,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4805,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,16 +4793,16 @@
         <v>2058</v>
       </c>
       <c r="D29" s="7">
-        <v>2219742</v>
+        <v>2219741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>2115</v>
@@ -4835,13 +4811,13 @@
         <v>2297610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M29" s="7">
         <v>4173</v>
@@ -4850,13 +4826,13 @@
         <v>4517351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4847,13 @@
         <v>1195220</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H30" s="7">
         <v>1167</v>
@@ -4886,13 +4862,13 @@
         <v>1243207</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M30" s="7">
         <v>2306</v>
@@ -4901,13 +4877,13 @@
         <v>2438427</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,7 +4895,7 @@
         <v>3197</v>
       </c>
       <c r="D31" s="7">
-        <v>3414962</v>
+        <v>3414961</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -4963,7 +4939,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +4961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C659998-D871-44EE-8AB6-29F672E31E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EEB9CB-5D17-42F9-994D-7A11B681F492}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,7 +4978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5115,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5130,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5145,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5136,13 @@
         <v>39128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -5175,13 +5151,13 @@
         <v>80724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -5190,13 +5166,13 @@
         <v>119852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5187,13 @@
         <v>380335</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>321</v>
@@ -5226,13 +5202,13 @@
         <v>314107</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>677</v>
@@ -5241,13 +5217,13 @@
         <v>694442</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5336,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5351,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5342,13 @@
         <v>320354</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>350</v>
@@ -5381,13 +5357,13 @@
         <v>341323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>653</v>
@@ -5396,13 +5372,13 @@
         <v>661677</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5393,13 @@
         <v>269087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>228</v>
@@ -5432,13 +5408,13 @@
         <v>221315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>491</v>
@@ -5447,13 +5423,13 @@
         <v>490402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,7 +5503,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5572,13 +5548,13 @@
         <v>499366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>524</v>
@@ -5587,13 +5563,13 @@
         <v>525070</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
@@ -5602,13 +5578,13 @@
         <v>1024436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5599,13 @@
         <v>167662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -5638,13 +5614,13 @@
         <v>136316</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -5653,13 +5629,13 @@
         <v>303978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,7 +5691,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5733,7 +5709,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5763,7 +5739,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5754,13 @@
         <v>478804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>458</v>
@@ -5793,28 +5769,28 @@
         <v>490932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>889</v>
       </c>
       <c r="N17" s="7">
-        <v>969737</v>
+        <v>969736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5805,13 @@
         <v>167244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -5844,13 +5820,13 @@
         <v>158145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>295</v>
@@ -5859,13 +5835,13 @@
         <v>325389</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5883,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5921,7 +5897,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5939,7 +5915,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5954,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5969,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5960,13 @@
         <v>387461</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H21" s="7">
         <v>292</v>
@@ -5999,13 +5975,13 @@
         <v>333192</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>636</v>
@@ -6014,13 +5990,13 @@
         <v>720653</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6011,13 @@
         <v>90457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -6050,13 +6026,13 @@
         <v>163657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -6065,13 +6041,13 @@
         <v>254114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6103,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6166,13 @@
         <v>429238</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>318</v>
@@ -6205,13 +6181,13 @@
         <v>368288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>772</v>
@@ -6220,13 +6196,13 @@
         <v>797526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6217,13 @@
         <v>162090</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>337</v>
@@ -6256,13 +6232,13 @@
         <v>409643</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>510</v>
@@ -6271,13 +6247,13 @@
         <v>571733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6327,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6366,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6381,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,16 +6369,16 @@
         <v>2043</v>
       </c>
       <c r="D29" s="7">
-        <v>2154352</v>
+        <v>2154351</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>2024</v>
@@ -6411,28 +6387,28 @@
         <v>2139529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>4067</v>
       </c>
       <c r="N29" s="7">
-        <v>4293880</v>
+        <v>4293881</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6423,13 @@
         <v>1236875</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>1312</v>
@@ -6462,13 +6438,13 @@
         <v>1403183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>2497</v>
@@ -6477,13 +6453,13 @@
         <v>2640058</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,7 +6471,7 @@
         <v>3228</v>
       </c>
       <c r="D31" s="7">
-        <v>3391227</v>
+        <v>3391226</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -6525,7 +6501,7 @@
         <v>6564</v>
       </c>
       <c r="N31" s="7">
-        <v>6933938</v>
+        <v>6933939</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -6539,7 +6515,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76ED8D-C273-40AB-9316-920C84341709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B8E22C-B1C0-4DF1-BC6E-F1E1C8925773}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6578,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6685,10 +6661,10 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -6700,10 +6676,10 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -6715,10 +6691,10 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -6742,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6757,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6772,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6808,7 +6784,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6823,7 +6799,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,10 +6867,10 @@
         <v>428396</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -6906,10 +6882,10 @@
         <v>499215</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -6921,10 +6897,10 @@
         <v>927611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -6948,7 +6924,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6963,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6978,7 +6954,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,7 +6975,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7014,7 +6990,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7029,7 +7005,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,10 +7073,10 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -7112,10 +7088,10 @@
         <v>610447</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -7127,10 +7103,10 @@
         <v>1167699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -7154,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7169,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7184,7 +7160,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7220,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7235,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,7 +7267,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7303,10 +7279,10 @@
         <v>723990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -7318,10 +7294,10 @@
         <v>747261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -7330,13 +7306,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -7375,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7390,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,7 +7402,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7441,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,7 +7459,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -7497,7 +7473,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7509,10 +7485,10 @@
         <v>600157</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -7524,10 +7500,10 @@
         <v>597063</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -7539,10 +7515,10 @@
         <v>1197220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -7596,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7623,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7679,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7712,13 +7688,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -7730,10 +7706,10 @@
         <v>1026637</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -7745,10 +7721,10 @@
         <v>1724392</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -7787,7 +7763,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7802,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7853,7 +7829,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,7 +7841,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -7921,10 +7897,10 @@
         <v>3385228</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -7936,10 +7912,10 @@
         <v>3835581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>36</v>
@@ -7948,13 +7924,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>36</v>
@@ -7978,7 +7954,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7993,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8008,7 +7984,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,7 +8005,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8044,7 +8020,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8059,7 +8035,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,7 +8077,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -8115,7 +8091,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P73-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P73-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AF6876-4F83-4D6B-8B32-39FCD42DC015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A7B2E2-EEC7-48A3-A370-9FFC3FA1D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28294495-5211-497E-8EB3-D9C13E782F2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A894B97F-1F95-4A41-9A10-43FDC48D7CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="452">
   <si>
     <t>Población según si están casados o viven en pareja en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>53,12%</t>
@@ -190,7 +190,7 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>80,13%</t>
@@ -247,7 +247,7 @@
     <t>20,46%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>86,09%</t>
@@ -304,7 +304,7 @@
     <t>19,77%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>87,99%</t>
@@ -361,102 +361,165 @@
     <t>20,09%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
     <t>36,04%</t>
   </si>
   <si>
@@ -742,58 +805,112 @@
     <t>20,28%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>65,0%</t>
@@ -1117,58 +1234,112 @@
     <t>29,16%</t>
   </si>
   <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
   </si>
   <si>
     <t>63,53%</t>
@@ -1634,8 +1805,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72632FC4-DFD2-41DE-AF31-F1FFA8B5DD21}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5D9B-1760-431C-A89E-85F7BD1FD4E7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2527,10 +2698,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>401237</v>
+        <v>256081</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2542,10 +2713,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I19" s="7">
-        <v>318256</v>
+        <v>206911</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2557,10 +2728,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>738</v>
+        <v>491</v>
       </c>
       <c r="N19" s="7">
-        <v>719494</v>
+        <v>462992</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2578,10 +2749,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>101229</v>
+        <v>36502</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2593,10 +2764,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>340</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>358586</v>
+        <v>136023</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2608,10 +2779,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="N20" s="7">
-        <v>459814</v>
+        <v>172525</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2629,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2644,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2659,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2676,55 +2847,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2096</v>
+        <v>151</v>
       </c>
       <c r="D22" s="7">
-        <v>2142457</v>
+        <v>145156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2053</v>
+        <v>96</v>
       </c>
       <c r="I22" s="7">
-        <v>2114258</v>
+        <v>111345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>4149</v>
+        <v>247</v>
       </c>
       <c r="N22" s="7">
-        <v>4256715</v>
+        <v>256501</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1117</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7">
-        <v>1133174</v>
+        <v>64727</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1244</v>
+        <v>194</v>
       </c>
       <c r="I23" s="7">
-        <v>1264940</v>
+        <v>222563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2361</v>
+        <v>263</v>
       </c>
       <c r="N23" s="7">
-        <v>2398114</v>
+        <v>287290</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,63 +2955,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2096</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2142457</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2053</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2114257</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4149</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4256715</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1117</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1133174</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1244</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1264940</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2361</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2398114</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275631</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654829</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2853,8 +3180,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325DBAFF-9FEC-4360-8F8C-BDAB266B4980}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9695F726-F6F3-4241-A069-E54615E2AF89}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2870,7 +3197,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2977,13 +3304,13 @@
         <v>47370</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>76</v>
@@ -2992,13 +3319,13 @@
         <v>77568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>123</v>
@@ -3007,13 +3334,13 @@
         <v>124938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3355,13 @@
         <v>402027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>339</v>
@@ -3043,13 +3370,13 @@
         <v>346128</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>733</v>
@@ -3058,13 +3385,13 @@
         <v>748155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3459,13 @@
         <v>326188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>385</v>
@@ -3147,13 +3474,13 @@
         <v>412459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>701</v>
@@ -3162,13 +3489,13 @@
         <v>738648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3510,13 @@
         <v>356778</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>185</v>
@@ -3198,13 +3525,13 @@
         <v>196813</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>532</v>
@@ -3213,13 +3540,13 @@
         <v>553590</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3614,13 @@
         <v>551840</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>574</v>
@@ -3302,13 +3629,13 @@
         <v>610398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1100</v>
@@ -3317,13 +3644,13 @@
         <v>1162238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3665,13 @@
         <v>130023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -3353,13 +3680,13 @@
         <v>97555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>216</v>
@@ -3368,13 +3695,13 @@
         <v>227577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3769,13 @@
         <v>499551</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>429</v>
@@ -3457,13 +3784,13 @@
         <v>492415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>877</v>
@@ -3472,13 +3799,13 @@
         <v>991966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3820,13 @@
         <v>115066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -3508,13 +3835,13 @@
         <v>122770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>209</v>
@@ -3523,13 +3850,13 @@
         <v>237835</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3924,13 @@
         <v>370687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>319</v>
@@ -3612,13 +3939,13 @@
         <v>351878</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>658</v>
@@ -3627,13 +3954,13 @@
         <v>722565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3975,13 @@
         <v>57610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -3663,13 +3990,13 @@
         <v>95922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3678,13 +4005,13 @@
         <v>153532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,49 +4073,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="D19" s="7">
-        <v>424105</v>
+        <v>254236</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="I19" s="7">
-        <v>352891</v>
+        <v>208566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>714</v>
+        <v>434</v>
       </c>
       <c r="N19" s="7">
-        <v>776997</v>
+        <v>462802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7">
-        <v>133717</v>
+        <v>54550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>356</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>384020</v>
+        <v>142633</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>476</v>
+        <v>188</v>
       </c>
       <c r="N20" s="7">
-        <v>517737</v>
+        <v>197183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>557822</v>
+        <v>308786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3863,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>688</v>
+        <v>341</v>
       </c>
       <c r="I21" s="7">
-        <v>736911</v>
+        <v>351199</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3878,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1190</v>
+        <v>622</v>
       </c>
       <c r="N21" s="7">
-        <v>1294734</v>
+        <v>659985</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3895,55 +4222,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2058</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>2219742</v>
+        <v>169870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>2115</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>2297610</v>
+        <v>144325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>4173</v>
+        <v>280</v>
       </c>
       <c r="N22" s="7">
-        <v>4517351</v>
+        <v>314195</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,49 +4279,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1139</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7">
-        <v>1195220</v>
+        <v>79166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>1167</v>
+        <v>216</v>
       </c>
       <c r="I23" s="7">
-        <v>1243207</v>
+        <v>241387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>2306</v>
+        <v>288</v>
       </c>
       <c r="N23" s="7">
-        <v>2438427</v>
+        <v>320553</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,63 +4330,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>385712</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>634748</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2058</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2219741</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2115</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2297610</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4173</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4517351</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1139</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1195220</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1167</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1243207</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2306</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2438427</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3197</v>
       </c>
-      <c r="D24" s="7">
-        <v>3414962</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3414961</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3282</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3540817</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6479</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6955778</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4072,8 +4555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6ACF5D-39D5-4685-A674-E06FF1FFD5FD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364823E9-23A0-450F-9AEA-B114FF165088}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4089,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4196,13 +4679,13 @@
         <v>39128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>82</v>
@@ -4211,13 +4694,13 @@
         <v>80724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -4226,13 +4709,13 @@
         <v>119852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4730,13 @@
         <v>380335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>321</v>
@@ -4262,13 +4745,13 @@
         <v>314107</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -4277,13 +4760,13 @@
         <v>694442</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4834,13 @@
         <v>320354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>350</v>
@@ -4366,13 +4849,13 @@
         <v>341323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>653</v>
@@ -4381,13 +4864,13 @@
         <v>661677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4885,13 @@
         <v>269087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>228</v>
@@ -4417,13 +4900,13 @@
         <v>221315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>491</v>
@@ -4432,13 +4915,13 @@
         <v>490402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4989,13 @@
         <v>499366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>524</v>
@@ -4521,13 +5004,13 @@
         <v>525070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>998</v>
@@ -4536,13 +5019,13 @@
         <v>1024436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5040,13 @@
         <v>167662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4572,13 +5055,13 @@
         <v>136316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>303</v>
@@ -4587,13 +5070,13 @@
         <v>303978</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5144,13 @@
         <v>478804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>458</v>
@@ -4676,13 +5159,13 @@
         <v>490932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>889</v>
@@ -4691,13 +5174,13 @@
         <v>969736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5195,13 @@
         <v>167244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4727,13 +5210,13 @@
         <v>158145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -4742,13 +5225,13 @@
         <v>325389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5299,13 @@
         <v>387461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>292</v>
@@ -4831,13 +5314,13 @@
         <v>333192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>636</v>
@@ -4846,13 +5329,13 @@
         <v>720653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +5350,13 @@
         <v>90457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -4882,13 +5365,13 @@
         <v>163657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -4897,13 +5380,13 @@
         <v>254114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,49 +5448,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7">
-        <v>429238</v>
+        <v>262678</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="I19" s="7">
-        <v>368288</v>
+        <v>224501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
-        <v>772</v>
+        <v>466</v>
       </c>
       <c r="N19" s="7">
-        <v>797526</v>
+        <v>487179</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5499,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>162090</v>
+        <v>71652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
-        <v>337</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>409643</v>
+        <v>153261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
-        <v>510</v>
+        <v>213</v>
       </c>
       <c r="N20" s="7">
-        <v>571733</v>
+        <v>224913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,10 +5550,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5082,10 +5565,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5097,10 +5580,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5114,55 +5597,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2043</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7">
-        <v>2154352</v>
+        <v>166560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
-        <v>2024</v>
+        <v>108</v>
       </c>
       <c r="I22" s="7">
-        <v>2139529</v>
+        <v>143787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
-        <v>4067</v>
+        <v>306</v>
       </c>
       <c r="N22" s="7">
-        <v>4293881</v>
+        <v>310347</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,49 +5654,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1185</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7">
-        <v>1236875</v>
+        <v>90438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
-        <v>1312</v>
+        <v>193</v>
       </c>
       <c r="I23" s="7">
-        <v>1403183</v>
+        <v>256382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
-        <v>2497</v>
+        <v>297</v>
       </c>
       <c r="N23" s="7">
-        <v>2640058</v>
+        <v>346820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,63 +5705,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2043</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2154352</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2024</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2139529</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4067</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4293881</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1185</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1236875</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1312</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1403183</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2497</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2640058</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3228</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3391227</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3336</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3542712</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6564</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6933939</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
